--- a/ML_PL_new/modinput_odds_tx.xlsx
+++ b/ML_PL_new/modinput_odds_tx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,21 @@
           <t>Over_odds</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Double_1X_odds</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Double_12_odds</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Double_X2_odds</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -542,6 +557,9 @@
       <c r="L2" t="n">
         <v>1.58</v>
       </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -586,6 +604,9 @@
       <c r="L3" t="n">
         <v>1.56</v>
       </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -630,6 +651,9 @@
       <c r="L4" t="n">
         <v>1.82</v>
       </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -674,6 +698,9 @@
       <c r="L5" t="n">
         <v>1.79</v>
       </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -718,6 +745,9 @@
       <c r="L6" t="n">
         <v>2.1</v>
       </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -762,6 +792,9 @@
       <c r="L7" t="n">
         <v>2.26</v>
       </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -806,6 +839,9 @@
       <c r="L8" t="n">
         <v>1.51</v>
       </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -850,6 +886,9 @@
       <c r="L9" t="n">
         <v>2.26</v>
       </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -894,6 +933,9 @@
       <c r="L10" t="n">
         <v>1.97</v>
       </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -938,6 +980,9 @@
       <c r="L11" t="n">
         <v>1.77</v>
       </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -982,6 +1027,9 @@
       <c r="L12" t="n">
         <v>1.81</v>
       </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1026,6 +1074,9 @@
       <c r="L13" t="n">
         <v>1.53</v>
       </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1070,6 +1121,9 @@
       <c r="L14" t="n">
         <v>1.5</v>
       </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1114,6 +1168,9 @@
       <c r="L15" t="n">
         <v>1.61</v>
       </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1158,6 +1215,9 @@
       <c r="L16" t="n">
         <v>1.55</v>
       </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1202,6 +1262,9 @@
       <c r="L17" t="n">
         <v>1.56</v>
       </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1246,6 +1309,9 @@
       <c r="L18" t="n">
         <v>2.2</v>
       </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1290,6 +1356,9 @@
       <c r="L19" t="n">
         <v>2.21</v>
       </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1334,6 +1403,9 @@
       <c r="L20" t="n">
         <v>1.54</v>
       </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1378,6 +1450,9 @@
       <c r="L21" t="n">
         <v>2.07</v>
       </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1422,6 +1497,9 @@
       <c r="L22" t="n">
         <v>2.03</v>
       </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1466,6 +1544,9 @@
       <c r="L23" t="n">
         <v>1.5</v>
       </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1510,6 +1591,9 @@
       <c r="L24" t="n">
         <v>1.65</v>
       </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1554,6 +1638,9 @@
       <c r="L25" t="n">
         <v>1.31</v>
       </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1598,6 +1685,9 @@
       <c r="L26" t="n">
         <v>1.82</v>
       </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1642,6 +1732,9 @@
       <c r="L27" t="n">
         <v>1.66</v>
       </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1686,6 +1779,9 @@
       <c r="L28" t="n">
         <v>1.7</v>
       </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1730,6 +1826,9 @@
       <c r="L29" t="n">
         <v>2.06</v>
       </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1774,6 +1873,9 @@
       <c r="L30" t="n">
         <v>2.06</v>
       </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1818,6 +1920,9 @@
       <c r="L31" t="n">
         <v>1.21</v>
       </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1862,6 +1967,9 @@
       <c r="L32" t="n">
         <v>1.9</v>
       </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1906,6 +2014,9 @@
       <c r="L33" t="n">
         <v>1.57</v>
       </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1950,6 +2061,9 @@
       <c r="L34" t="n">
         <v>1.36</v>
       </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1994,6 +2108,9 @@
       <c r="L35" t="n">
         <v>1.73</v>
       </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2038,6 +2155,9 @@
       <c r="L36" t="n">
         <v>1.94</v>
       </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2082,6 +2202,9 @@
       <c r="L37" t="n">
         <v>1.82</v>
       </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2126,6 +2249,9 @@
       <c r="L38" t="n">
         <v>1.9</v>
       </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2170,6 +2296,9 @@
       <c r="L39" t="n">
         <v>1.89</v>
       </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2214,6 +2343,9 @@
       <c r="L40" t="n">
         <v>1.67</v>
       </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2258,6 +2390,9 @@
       <c r="L41" t="n">
         <v>1.73</v>
       </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2302,6 +2437,9 @@
       <c r="L42" t="n">
         <v>2.56</v>
       </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2346,6 +2484,9 @@
       <c r="L43" t="n">
         <v>1.83</v>
       </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2390,6 +2531,9 @@
       <c r="L44" t="n">
         <v>1.58</v>
       </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2434,6 +2578,9 @@
       <c r="L45" t="n">
         <v>1.49</v>
       </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2478,6 +2625,9 @@
       <c r="L46" t="n">
         <v>1.44</v>
       </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2522,6 +2672,9 @@
       <c r="L47" t="n">
         <v>1.67</v>
       </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2566,6 +2719,9 @@
       <c r="L48" t="n">
         <v>1.36</v>
       </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2610,6 +2766,9 @@
       <c r="L49" t="n">
         <v>1.62</v>
       </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2654,6 +2813,9 @@
       <c r="L50" t="n">
         <v>2.41</v>
       </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2698,6 +2860,9 @@
       <c r="L51" t="n">
         <v>1.59</v>
       </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2742,6 +2907,9 @@
       <c r="L52" t="n">
         <v>1.82</v>
       </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2786,6 +2954,9 @@
       <c r="L53" t="n">
         <v>1.94</v>
       </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2830,6 +3001,9 @@
       <c r="L54" t="n">
         <v>1.52</v>
       </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2874,6 +3048,9 @@
       <c r="L55" t="n">
         <v>1.57</v>
       </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2918,6 +3095,9 @@
       <c r="L56" t="n">
         <v>2.04</v>
       </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2962,6 +3142,9 @@
       <c r="L57" t="n">
         <v>1.58</v>
       </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3006,6 +3189,9 @@
       <c r="L58" t="n">
         <v>1.35</v>
       </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3050,6 +3236,9 @@
       <c r="L59" t="n">
         <v>1.66</v>
       </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3094,6 +3283,9 @@
       <c r="L60" t="n">
         <v>2.04</v>
       </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3138,6 +3330,9 @@
       <c r="L61" t="n">
         <v>1.54</v>
       </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3182,6 +3377,9 @@
       <c r="L62" t="n">
         <v>2.01</v>
       </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3226,6 +3424,9 @@
       <c r="L63" t="n">
         <v>2.11</v>
       </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3270,6 +3471,9 @@
       <c r="L64" t="n">
         <v>1.83</v>
       </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3314,6 +3518,9 @@
       <c r="L65" t="n">
         <v>1.38</v>
       </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3357,6 +3564,3105 @@
       </c>
       <c r="L66" t="n">
         <v>1.69</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45769.79166666666</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G67" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45769.86458333334</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45769.875</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45769.89583333334</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G70" t="n">
+        <v>11</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O70" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45770.77083333334</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45770.77083333334</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45770.77083333334</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45770.79166666666</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F74" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G74" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45770.79166666666</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F75" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" t="n">
+        <v>8</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45770.83333333334</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F76" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G76" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45770.875</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45770.89583333334</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G78" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="L78" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45770.89583333334</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F79" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45771.78125</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G80" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O80" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45771.79166666666</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F81" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L81" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45771.79166666666</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F82" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45771.875</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F83" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45771.89583333334</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F84" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G84" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O84" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45771.89583333334</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G85" t="n">
+        <v>6</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45772.78125</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45772.85416666666</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F87" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O87" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45772.86458333334</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>6</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45772.86458333334</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45772.875</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F90" t="n">
+        <v>7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>11</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45772.89583333334</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45773.5625</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45773.625</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G93" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F94" t="n">
+        <v>7</v>
+      </c>
+      <c r="G94" t="n">
+        <v>11</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>4</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F97" t="n">
+        <v>5</v>
+      </c>
+      <c r="G97" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45773.64583333334</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>5</v>
+      </c>
+      <c r="F99" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O100" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F102" t="n">
+        <v>7</v>
+      </c>
+      <c r="G102" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>3</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O102" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45773.6875</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45773.70833333334</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>St-Etienne</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45773.75</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45773.77083333334</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>E. Frankfurt</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45773.79166666666</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45773.79166666666</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45773.86458333334</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45773.87847222222</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45773.89583333334</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Estrela Amadora</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45774.51041666666</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>F. Sittard</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45774.52083333334</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45774.60416666666</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F114" t="n">
+        <v>5</v>
+      </c>
+      <c r="G114" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O114" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45774.60416666666</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45774.625</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45774.625</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Manchester Utd.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F117" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45774.625</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45774.64583333334</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45774.6875</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Nacional Madeira</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45774.69791666666</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45774.71875</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>4</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45774.71875</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45774.71875</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45774.72916666666</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G125" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O125" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45774.72916666666</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45774.75</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F127" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G127" t="n">
+        <v>14</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O127" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45774.79166666666</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AVS SAD</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G128" t="n">
+        <v>28</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45774.79166666666</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G129" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L129" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O129" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45774.86458333334</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G130" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O130" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45774.86458333334</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O131" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45774.89583333334</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F132" t="n">
+        <v>7</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O132" t="n">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/ML_PL_new/modinput_odds_tx.xlsx
+++ b/ML_PL_new/modinput_odds_tx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:Q196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,6 +513,16 @@
           <t>Double_X2_odds</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>HomeTeam</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>AwayTeam</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -560,6 +570,8 @@
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -607,6 +619,8 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,6 +668,8 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -701,6 +717,8 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -748,6 +766,8 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -795,6 +815,8 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -842,6 +864,8 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -889,6 +913,8 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -936,6 +962,8 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -983,6 +1011,8 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1030,6 +1060,8 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1077,6 +1109,8 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1124,6 +1158,8 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1171,6 +1207,8 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1218,6 +1256,8 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1265,6 +1305,8 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1312,6 +1354,8 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1359,6 +1403,8 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,6 +1452,8 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1453,6 +1501,8 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1500,6 +1550,8 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1547,6 +1599,8 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1594,6 +1648,8 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1641,6 +1697,8 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1688,6 +1746,8 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1735,6 +1795,8 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1782,6 +1844,8 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1829,6 +1893,8 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1876,6 +1942,8 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1923,6 +1991,8 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1970,6 +2040,8 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2017,6 +2089,8 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2064,6 +2138,8 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2111,6 +2187,8 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2158,6 +2236,8 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2205,6 +2285,8 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2252,6 +2334,8 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2299,6 +2383,8 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2346,6 +2432,8 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2393,6 +2481,8 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2440,6 +2530,8 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2487,6 +2579,8 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2534,6 +2628,8 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2581,6 +2677,8 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2628,6 +2726,8 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2675,6 +2775,8 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2722,6 +2824,8 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2769,6 +2873,8 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2816,6 +2922,8 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2863,6 +2971,8 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2910,6 +3020,8 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2957,6 +3069,8 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3004,6 +3118,8 @@
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3051,6 +3167,8 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3098,6 +3216,8 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3145,6 +3265,8 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3192,6 +3314,8 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3239,6 +3363,8 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3286,6 +3412,8 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3333,6 +3461,8 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3380,6 +3510,8 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3427,6 +3559,8 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3474,6 +3608,8 @@
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3521,6 +3657,8 @@
       <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3568,6 +3706,8 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3615,6 +3755,8 @@
       <c r="O67" t="n">
         <v>1.71</v>
       </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3662,6 +3804,8 @@
       <c r="O68" t="n">
         <v>1.09</v>
       </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3709,6 +3853,8 @@
       <c r="O69" t="n">
         <v>1.78</v>
       </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3756,6 +3902,8 @@
       <c r="O70" t="n">
         <v>2.87</v>
       </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3803,6 +3951,8 @@
       <c r="O71" t="n">
         <v>1.46</v>
       </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3850,6 +4000,8 @@
       <c r="O72" t="n">
         <v>1.27</v>
       </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3897,6 +4049,8 @@
       <c r="O73" t="n">
         <v>1.32</v>
       </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3944,6 +4098,8 @@
       <c r="O74" t="n">
         <v>1.43</v>
       </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -3991,6 +4147,8 @@
       <c r="O75" t="n">
         <v>2.43</v>
       </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4038,6 +4196,8 @@
       <c r="O76" t="n">
         <v>1.62</v>
       </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4085,6 +4245,8 @@
       <c r="O77" t="n">
         <v>2.34</v>
       </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4132,6 +4294,8 @@
       <c r="O78" t="n">
         <v>1.48</v>
       </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4179,6 +4343,8 @@
       <c r="O79" t="n">
         <v>1.17</v>
       </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4226,6 +4392,8 @@
       <c r="O80" t="n">
         <v>2.3</v>
       </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4273,6 +4441,8 @@
       <c r="O81" t="n">
         <v>1.44</v>
       </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4320,6 +4490,8 @@
       <c r="O82" t="n">
         <v>1.4</v>
       </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4367,6 +4539,8 @@
       <c r="O83" t="n">
         <v>1.21</v>
       </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4414,6 +4588,8 @@
       <c r="O84" t="n">
         <v>3.05</v>
       </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4461,6 +4637,8 @@
       <c r="O85" t="n">
         <v>2.02</v>
       </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4508,6 +4686,8 @@
       <c r="O86" t="n">
         <v>1.24</v>
       </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4555,6 +4735,8 @@
       <c r="O87" t="n">
         <v>2.17</v>
       </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4602,6 +4784,8 @@
       <c r="O88" t="n">
         <v>2.85</v>
       </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4649,6 +4833,8 @@
       <c r="O89" t="n">
         <v>2.02</v>
       </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4696,6 +4882,8 @@
       <c r="O90" t="n">
         <v>2.75</v>
       </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4743,6 +4931,8 @@
       <c r="O91" t="n">
         <v>1.27</v>
       </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4790,6 +4980,8 @@
       <c r="O92" t="n">
         <v>1.99</v>
       </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4837,6 +5029,8 @@
       <c r="O93" t="n">
         <v>1.72</v>
       </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4884,6 +5078,8 @@
       <c r="O94" t="n">
         <v>3</v>
       </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -4931,6 +5127,8 @@
       <c r="O95" t="n">
         <v>1.49</v>
       </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -4978,6 +5176,8 @@
       <c r="O96" t="n">
         <v>1.21</v>
       </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5025,6 +5225,8 @@
       <c r="O97" t="n">
         <v>2.48</v>
       </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5072,6 +5274,8 @@
       <c r="O98" t="n">
         <v>1.33</v>
       </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5119,6 +5323,8 @@
       <c r="O99" t="n">
         <v>1.15</v>
       </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5166,6 +5372,8 @@
       <c r="O100" t="n">
         <v>2.02</v>
       </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5213,6 +5421,8 @@
       <c r="O101" t="n">
         <v>1.92</v>
       </c>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5260,6 +5470,8 @@
       <c r="O102" t="n">
         <v>3.1</v>
       </c>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5307,6 +5519,8 @@
       <c r="O103" t="n">
         <v>1.63</v>
       </c>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5354,6 +5568,8 @@
       <c r="O104" t="n">
         <v>1.99</v>
       </c>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5401,6 +5617,8 @@
       <c r="O105" t="n">
         <v>1.83</v>
       </c>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5448,6 +5666,8 @@
       <c r="O106" t="n">
         <v>1.52</v>
       </c>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5495,6 +5715,8 @@
       <c r="O107" t="n">
         <v>1.5</v>
       </c>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5542,6 +5764,8 @@
       <c r="O108" t="n">
         <v>1.11</v>
       </c>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5589,6 +5813,8 @@
       <c r="O109" t="n">
         <v>2.09</v>
       </c>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5636,6 +5862,8 @@
       <c r="O110" t="n">
         <v>1.86</v>
       </c>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5683,6 +5911,8 @@
       <c r="O111" t="n">
         <v>1.1</v>
       </c>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5730,6 +5960,8 @@
       <c r="O112" t="n">
         <v>1.7</v>
       </c>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5777,6 +6009,8 @@
       <c r="O113" t="n">
         <v>1.16</v>
       </c>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5824,6 +6058,8 @@
       <c r="O114" t="n">
         <v>2.15</v>
       </c>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5871,6 +6107,8 @@
       <c r="O115" t="n">
         <v>1.62</v>
       </c>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -5918,6 +6156,8 @@
       <c r="O116" t="n">
         <v>1.86</v>
       </c>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -5965,6 +6205,8 @@
       <c r="O117" t="n">
         <v>1.88</v>
       </c>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6012,6 +6254,8 @@
       <c r="O118" t="n">
         <v>1.15</v>
       </c>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6059,6 +6303,8 @@
       <c r="O119" t="n">
         <v>1.49</v>
       </c>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6106,6 +6352,8 @@
       <c r="O120" t="n">
         <v>1.56</v>
       </c>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6153,6 +6401,8 @@
       <c r="O121" t="n">
         <v>1.31</v>
       </c>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6200,6 +6450,8 @@
       <c r="O122" t="n">
         <v>1.21</v>
       </c>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6247,6 +6499,8 @@
       <c r="O123" t="n">
         <v>1.93</v>
       </c>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6294,6 +6548,8 @@
       <c r="O124" t="n">
         <v>1.3</v>
       </c>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6341,6 +6597,8 @@
       <c r="O125" t="n">
         <v>2.82</v>
       </c>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6388,6 +6646,8 @@
       <c r="O126" t="n">
         <v>1.68</v>
       </c>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6435,6 +6695,8 @@
       <c r="O127" t="n">
         <v>3.1</v>
       </c>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6476,6 +6738,8 @@
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6523,6 +6787,8 @@
       <c r="O129" t="n">
         <v>2.05</v>
       </c>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6570,6 +6836,8 @@
       <c r="O130" t="n">
         <v>2.23</v>
       </c>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6617,6 +6885,8 @@
       <c r="O131" t="n">
         <v>2.03</v>
       </c>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6664,6 +6934,3656 @@
       <c r="O132" t="n">
         <v>1.05</v>
       </c>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45775.77083333334</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45775.86458333334</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45775.86458333334</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45775.88541666666</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G136" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45778.85416666666</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O137" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45779.85416666666</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G138" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L138" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45779.86458333334</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45779.86458333334</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G140" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="O140" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45779.875</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G141" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O141" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>Man City</t>
+        </is>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45779.875</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N142" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>Vallecano</t>
+        </is>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45779.88541666666</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G143" t="n">
+        <v>11</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O143" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45780.5625</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L144" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45780.58333333334</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>Alaves</t>
+        </is>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>Ath Madrid</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45780.625</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N146" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45780.625</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G147" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L147" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O147" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45780.64583333334</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>St Pauli</t>
+        </is>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45780.64583333334</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45780.64583333334</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Werder Bremen</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45780.64583333334</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>M'gladbach</t>
+        </is>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G152" t="n">
+        <v>3</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L152" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45780.66666666666</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45780.67708333334</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F154" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="L154" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O154" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45780.6875</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N155" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45780.6875</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Nacional Madeira</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45780.6875</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N157" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45780.70833333334</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F158" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45780.75</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>6</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45780.77083333334</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G160" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45780.77083333334</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G161" t="n">
+        <v>7</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O161" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45780.77083333334</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45780.78125</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L163" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45780.79166666666</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="L164" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>Sp Braga</t>
+        </is>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45780.79166666666</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45780.83333333334</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F166" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Waalwijk</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45780.86458333334</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F167" t="n">
+        <v>5</v>
+      </c>
+      <c r="G167" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O167" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Verona</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45780.875</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>F. Sittard</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F168" t="n">
+        <v>13</v>
+      </c>
+      <c r="G168" t="n">
+        <v>25</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O168" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>For Sittard</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45780.875</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>17</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M169" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45780.87847222222</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>St-Etienne</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F170" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>St Etienne</t>
+        </is>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45781.51041666666</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>2</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N171" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45781.52083333334</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45781.58333333334</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F173" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G173" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O173" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Celta</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45781.60416666666</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="L174" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N174" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45781.60416666666</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45781.625</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Manchester Utd.</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G176" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Man United</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45781.625</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F177" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N177" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45781.625</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45781.625</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45781.625</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G180" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N180" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45781.64583333334</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G181" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45781.67708333334</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G182" t="n">
+        <v>5</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L182" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45781.71875</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M183" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45781.71875</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F184" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G184" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M184" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45781.71875</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5</v>
+      </c>
+      <c r="G185" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O185" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45781.72916666666</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45781.72916666666</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="L187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N187" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45781.75</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F188" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L188" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O188" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45781.77083333334</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="L189" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>Espanol</t>
+        </is>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45781.8125</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>E. Frankfurt</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M190" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Ein Frankfurt</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45781.86458333334</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>3</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="L191" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N191" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45781.86458333334</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45781.875</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L193" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N193" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>Sociedad</t>
+        </is>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Ath Bilbao</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45782.86458333334</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F194" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45782.875</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G195" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45782.875</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="L196" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Nott'm Forest</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ML_PL_new/modinput_odds_tx.xlsx
+++ b/ML_PL_new/modinput_odds_tx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q196"/>
+  <dimension ref="A1:Q261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10585,6 +10585,3185 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45782.88541666666</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>AVS SAD</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Boavista</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G197" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45786.83333333334</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L198" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45786.85416666666</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Wolfsburg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G199" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45786.86458333334</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G200" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45786.875</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N201" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45787.58333333334</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F202" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G202" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45787.625</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G203" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Bremen</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M204" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Freiburg</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G206" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L206" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45787.64583333334</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Bochum</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Mainz</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="F208" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L208" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F209" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L209" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M209" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="N209" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G210" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N211" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45787.67708333334</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G212" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="N212" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45787.6875</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F213" t="n">
+        <v>4</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L213" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45787.6875</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G214" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45787.6875</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Nacional Madeira</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G215" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45787.75</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N216" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N217" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Bayern München</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Mönchengladbach</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F218" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="G218" t="n">
+        <v>15</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L218" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F219" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G219" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O219" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45787.78125</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>F. Sittard</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F221" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G221" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="L221" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45787.79166666666</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F222" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G222" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="L222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45787.86458333334</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G223" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L223" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="L224" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N224" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F225" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L225" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M226" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L227" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>10</v>
+      </c>
+      <c r="F229" t="n">
+        <v>7</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M229" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="N229" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F230" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L230" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F231" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G231" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L231" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M231" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N231" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G232" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>St-Etienne</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F233" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N233" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45787.875</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F234" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G234" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="L234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N234" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O234" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45787.89583333334</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N235" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45787.89583333334</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Arouca</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F236" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="G236" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L236" t="n">
+        <v>2</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45788.51041666666</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N237" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45788.52083333334</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F238" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G238" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45788.54166666666</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F239" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G239" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L239" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N239" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45788.58333333334</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F240" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G240" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L240" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N240" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45788.60416666666</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L241" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N241" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45788.60416666666</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F242" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G242" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45788.625</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>2</v>
+      </c>
+      <c r="F243" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="L243" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N243" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45788.63541666666</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Manchester Utd.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G244" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L244" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N244" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45788.63541666666</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F245" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45788.63541666666</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F246" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G246" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="L246" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N246" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O246" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45788.64583333334</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Leverkusen</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N247" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45788.67708333334</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F248" t="n">
+        <v>4</v>
+      </c>
+      <c r="G248" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="L248" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45788.69791666666</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F249" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="G249" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L249" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O249" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45788.69791666666</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F250" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G250" t="n">
+        <v>6</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M250" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O250" t="n">
+        <v>2</v>
+      </c>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45788.72916666666</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G251" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N251" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45788.72916666666</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>E. Frankfurt</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>St. Pauli</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F252" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="G252" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M252" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N252" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O252" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45788.75</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F253" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M253" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45788.77083333334</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G254" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L254" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N254" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O254" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45788.79166666666</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G255" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N255" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O255" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45788.79166666666</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Guimaraes</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Farense</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>POR1</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F256" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="G256" t="n">
+        <v>6</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L256" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N256" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O256" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45788.8125</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>VfB Stuttgart</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Augsburg</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>GER1</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="G257" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N257" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O257" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45788.86458333334</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F258" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G258" t="n">
+        <v>10</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L258" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N258" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45788.875</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F259" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G259" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L259" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N259" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O259" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45789.77083333334</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L260" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M260" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N260" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O260" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45789.86458333334</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G261" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N261" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O261" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ML_PL_new/modinput_odds_tx.xlsx
+++ b/ML_PL_new/modinput_odds_tx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q261"/>
+  <dimension ref="A1:Q299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13764,6 +13764,1868 @@
       <c r="P261" t="inlineStr"/>
       <c r="Q261" t="inlineStr"/>
     </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45790.79166666666</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F262" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>2</v>
+      </c>
+      <c r="L262" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="N262" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O262" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45790.83333333334</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L263" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N263" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O263" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45790.89583333334</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G264" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L264" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M264" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N264" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O264" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45791.79166666666</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F265" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G265" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M265" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N265" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O265" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45791.79166666666</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G266" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L266" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M266" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N266" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O266" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G267" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L267" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M267" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N267" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O267" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Utrecht</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F268" t="n">
+        <v>4</v>
+      </c>
+      <c r="G268" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="L268" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N268" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O268" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Groningen</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>5</v>
+      </c>
+      <c r="F269" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L269" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M269" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N269" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O269" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Nijmegen</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>NAC Breda</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G270" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="L270" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M270" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N270" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O270" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>PSV</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Heracles</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F271" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G271" t="n">
+        <v>35</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L271" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M271" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N271" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O271" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G272" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L272" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M272" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="N272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O272" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>F. Sittard</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G273" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="L273" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="N273" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O273" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G274" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M274" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O274" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45791.83333333334</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>NED1</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F275" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G275" t="n">
+        <v>22</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L275" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N275" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="O275" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45791.89583333334</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F276" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G276" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L276" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N276" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45792.79166666666</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O277" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45792.79166666666</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N278" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45792.89583333334</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="F279" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M279" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="N279" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45792.89583333334</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="F280" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L280" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45793.85416666666</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G281" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N281" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O281" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45793.88541666666</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Manchester Utd.</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F282" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G282" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N282" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O282" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F283" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G283" t="n">
+        <v>8</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L283" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M283" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N283" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O283" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F284" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G284" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M284" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Le Havre</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F285" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G285" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M285" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N285" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Paris SG</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Auxerre</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F286" t="n">
+        <v>7</v>
+      </c>
+      <c r="G286" t="n">
+        <v>11</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O286" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>St-Etienne</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Toulouse</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F287" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G287" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="L287" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M287" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Monaco</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L288" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N288" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Nice</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F289" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G289" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N289" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O289" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F290" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="G290" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M290" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45794.875</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>FRA1</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F291" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="G291" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L291" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M291" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N291" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="O291" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45795.54166666666</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F292" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G292" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M292" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N292" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O292" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45795.63541666666</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L293" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M293" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="N293" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F295" t="n">
+        <v>4</v>
+      </c>
+      <c r="G295" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L295" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N295" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>45795.72916666666</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G296" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N296" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>45796.875</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L297" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N297" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>45797.875</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L298" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N298" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P298" t="inlineStr"/>
+      <c r="Q298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>45797.875</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F299" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G299" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="L299" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M299" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N299" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O299" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ML_PL_new/modinput_odds_tx.xlsx
+++ b/ML_PL_new/modinput_odds_tx.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q299"/>
+  <dimension ref="A1:Q329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15626,6 +15626,1476 @@
       <c r="P299" t="inlineStr"/>
       <c r="Q299" t="inlineStr"/>
     </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>45800.79166666666</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Betis</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G300" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="P300" t="inlineStr"/>
+      <c r="Q300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>45800.86458333334</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Como</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F301" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="L301" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N301" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>45800.86458333334</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F302" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G302" t="n">
+        <v>14</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L302" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N302" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O302" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>45801.67708333334</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F303" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="G303" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="L303" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M303" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N303" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O303" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>45801.75</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Genoa</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F304" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G304" t="n">
+        <v>6</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="L304" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M304" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N304" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O304" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="P304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>45801.75</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Monza</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F305" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="G305" t="n">
+        <v>11</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L305" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N305" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="O305" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>45801.77083333334</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F306" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G306" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="L306" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M306" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N306" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O306" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>45801.77083333334</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F307" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G307" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="L307" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N307" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O307" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>45801.875</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Getafe</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Celta Vigo</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F308" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G308" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M308" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N308" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O308" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>45801.875</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Alavés</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Osasuna</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="F309" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="L309" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M309" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="N309" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O309" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>45801.875</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G310" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L310" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O310" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>45802.58333333334</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Atl. Madrid</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="F311" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M311" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="N311" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O311" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>45802.67708333334</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Villarreal</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F312" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G312" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L312" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M312" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N312" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="O312" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Manchester Utd.</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F313" t="n">
+        <v>4</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="L313" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M313" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="N313" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O313" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Wolverhampton</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F314" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G314" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M314" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N314" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Ipswich</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F315" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M315" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N315" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O315" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F316" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G316" t="n">
+        <v>8</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L316" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N316" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O316" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G317" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L317" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M317" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N317" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="O317" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F318" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G318" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L318" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M318" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="N318" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O318" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="F319" t="n">
+        <v>5</v>
+      </c>
+      <c r="G319" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L319" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M319" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N319" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="O319" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="F320" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L320" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M320" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="N320" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O320" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F321" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="G321" t="n">
+        <v>8</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="L321" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M321" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N321" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O321" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="P321" t="inlineStr"/>
+      <c r="Q321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>45802.70833333334</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>ENG1</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F322" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="G322" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="L322" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M322" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="N322" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O322" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P322" t="inlineStr"/>
+      <c r="Q322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>45802.86458333334</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Udinese</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F323" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G323" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L323" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="N323" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O323" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P323" t="inlineStr"/>
+      <c r="Q323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>45802.86458333334</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F324" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G324" t="n">
+        <v>7</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L324" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M324" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N324" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O324" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>45802.86458333334</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Parma</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F325" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G325" t="n">
+        <v>6</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L325" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M325" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N325" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="O325" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="P325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>45802.86458333334</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Venezia</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F326" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G326" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L326" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M326" t="n">
+        <v>2</v>
+      </c>
+      <c r="N326" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O326" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>45802.86458333334</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="F327" t="n">
+        <v>4</v>
+      </c>
+      <c r="G327" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="L327" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M327" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="N327" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O327" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P327" t="inlineStr"/>
+      <c r="Q327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>45802.86458333334</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Empoli</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>ITA1</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F328" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G328" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L328" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M328" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N328" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O328" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>45802.875</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Ath. Bilbao</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>ESP1</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F329" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G329" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L329" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N329" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O329" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
